--- a/ipynb/analyses/hypo-hyper-overlap.xlsx
+++ b/ipynb/analyses/hypo-hyper-overlap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="26100" yWindow="5140" windowWidth="23280" windowHeight="20400" tabRatio="500"/>
+    <workbookView xWindow="26980" yWindow="0" windowWidth="23280" windowHeight="25860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>hypo</t>
   </si>
@@ -40,14 +40,34 @@
   </si>
   <si>
     <t>Oyster 2</t>
+  </si>
+  <si>
+    <t>probes</t>
+  </si>
+  <si>
+    <t>Environmental Response</t>
+  </si>
+  <si>
+    <t>TE- Blast</t>
+  </si>
+  <si>
+    <t>Promoter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -70,6 +90,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -88,18 +115,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,15 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D20"/>
+  <dimension ref="A4:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:4">
@@ -466,13 +515,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7">
+      <c r="B7" s="3">
         <v>7224</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>6560</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>7645</v>
       </c>
     </row>
@@ -491,13 +540,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9">
+      <c r="B9" s="3">
         <v>2803</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>3587</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>4044</v>
       </c>
     </row>
@@ -515,11 +564,11 @@
         <v>0.1004983388704319</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ref="C12:D12" si="0">C6/C7</f>
+        <f>C6/C7</f>
         <v>6.4939024390243905E-2</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f>D6/D7</f>
         <v>4.8659254414650098E-2</v>
       </c>
     </row>
@@ -532,12 +581,21 @@
         <v>5.4941134498751334E-2</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:D13" si="1">C8/C9</f>
+        <f>C8/C9</f>
         <v>7.7502090883746863E-2</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
+        <f>D8/D9</f>
         <v>6.4292779426310578E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <f>117460/697753</f>
+        <v>0.16834037259603327</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -582,11 +640,11 @@
         <v>0.30066445182724255</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:D19" si="2">C17/C7</f>
+        <f>C17/C7</f>
         <v>0.30304878048780487</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="2"/>
+        <f>D17/D7</f>
         <v>0.30961412688031392</v>
       </c>
     </row>
@@ -599,16 +657,260 @@
         <v>0.37031751694612913</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ref="C20:D20" si="3">C18/C9</f>
+        <f t="shared" ref="C20:D20" si="0">C18/C9</f>
         <v>0.38500139392249794</v>
       </c>
       <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35905044510385759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <f>251970/697753</f>
+        <v>0.36111632626445173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>2063</v>
+      </c>
+      <c r="C24">
+        <v>1873</v>
+      </c>
+      <c r="D24">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>746</v>
+      </c>
+      <c r="C25">
+        <v>865</v>
+      </c>
+      <c r="D25">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <f>B24/B$7</f>
+        <v>0.28557585825027687</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" ref="C26:D26" si="1">C24/C$7</f>
+        <v>0.28551829268292683</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28449967298888162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <f>B25/B$9</f>
+        <v>0.26614341776667855</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" ref="C27:D27" si="2">C25/C$9</f>
+        <v>0.24114859213827711</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25741839762611274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1">
+        <f>190475/697753</f>
+        <v>0.27298341963416856</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>368</v>
+      </c>
+      <c r="C31">
+        <v>251</v>
+      </c>
+      <c r="D31">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1">
+        <f>B31/B$7</f>
+        <v>5.0941306755260242E-2</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" ref="C33:D33" si="3">C31/C$7</f>
+        <v>3.8262195121951219E-2</v>
+      </c>
+      <c r="D33" s="1">
         <f t="shared" si="3"/>
-        <v>0.35905044510385759</v>
+        <v>1.8443427076520601E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1">
+        <f>B32/B$9</f>
+        <v>5.3514092044238317E-3</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" ref="C34:D34" si="4">C32/C$9</f>
+        <v>8.363534987454698E-4</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="4"/>
+        <v>6.6765578635014835E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1">
+        <f>10322/697753</f>
+        <v>1.4793200459188281E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A19:D20">
+  <conditionalFormatting sqref="A19:D20 A21">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:D13">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:A28">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:D27">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:A35">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:D34">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -620,7 +922,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:D13">
+  <conditionalFormatting sqref="B9:D9 B7:D7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/ipynb/analyses/hypo-hyper-overlap.xlsx
+++ b/ipynb/analyses/hypo-hyper-overlap.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="26980" yWindow="0" windowWidth="23280" windowHeight="25860" tabRatio="500"/>
+    <workbookView xWindow="25340" yWindow="3680" windowWidth="23280" windowHeight="25860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
   <si>
     <t>hypo</t>
   </si>
@@ -52,6 +53,24 @@
   </si>
   <si>
     <t>Promoter</t>
+  </si>
+  <si>
+    <t>dust</t>
+  </si>
+  <si>
+    <t>trf</t>
+  </si>
+  <si>
+    <t>oyster 2</t>
+  </si>
+  <si>
+    <t>oyster 4</t>
+  </si>
+  <si>
+    <t>oyster 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypo </t>
   </si>
 </sst>
 </file>
@@ -115,8 +134,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -136,19 +165,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D37"/>
+  <dimension ref="A4:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -489,7 +528,7 @@
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -500,7 +539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -513,8 +552,12 @@
       <c r="D6">
         <v>372</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <f>SUM(B6:D6)</f>
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="B7" s="3">
         <v>7224</v>
       </c>
@@ -524,8 +567,12 @@
       <c r="D7" s="3">
         <v>7645</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <f>SUM(B7:D7)</f>
+        <v>21429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -538,8 +585,12 @@
       <c r="D8">
         <v>260</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8">
+        <f>SUM(B8:D8)</f>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="B9" s="3">
         <v>2803</v>
       </c>
@@ -549,13 +600,17 @@
       <c r="D9" s="3">
         <v>4044</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E9">
+        <f>SUM(B9:D9)</f>
+        <v>10434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -572,7 +627,7 @@
         <v>4.8659254414650098E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -589,7 +644,7 @@
         <v>6.4292779426310578E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -598,12 +653,12 @@
         <v>0.16834037259603327</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -616,8 +671,12 @@
       <c r="D17">
         <v>2367</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <f>SUM(B17:D17)</f>
+        <v>6527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -630,8 +689,12 @@
       <c r="D18">
         <v>1452</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <f>SUM(B18:D18)</f>
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -647,8 +710,12 @@
         <f>D17/D7</f>
         <v>0.30961412688031392</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <f>E17/E7</f>
+        <v>0.30458724158850159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -665,7 +732,7 @@
         <v>0.35905044510385759</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -674,7 +741,7 @@
         <v>0.36111632626445173</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -688,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -702,7 +769,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -716,7 +783,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -733,7 +800,7 @@
         <v>0.28449967298888162</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -750,7 +817,7 @@
         <v>0.25741839762611274</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -759,7 +826,7 @@
         <v>0.27298341963416856</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -773,7 +840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -786,8 +853,12 @@
       <c r="D31">
         <v>141</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <f>SUM(B31:D31)</f>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -799,6 +870,10 @@
       </c>
       <c r="D32">
         <v>27</v>
+      </c>
+      <c r="E32">
+        <f>SUM(B32:D32)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -849,8 +924,103 @@
         <v>10</v>
       </c>
     </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>720</v>
+      </c>
+      <c r="C38">
+        <v>684</v>
+      </c>
+      <c r="D38">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>256</v>
+      </c>
+      <c r="C39">
+        <v>308</v>
+      </c>
+      <c r="D39">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1">
+        <f>B38/B$7</f>
+        <v>9.9667774086378738E-2</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" ref="C40:D40" si="5">C38/C$7</f>
+        <v>0.10426829268292682</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="5"/>
+        <v>0.1119686069326357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1">
+        <f>B39/B$9</f>
+        <v>9.1330717088833391E-2</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:D41" si="6">C39/C$9</f>
+        <v>8.5865625871201556E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="6"/>
+        <v>9.6933728981206724E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1">
+        <f>66368/697753</f>
+        <v>9.5116753349681046E-2</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A19:D20 A21">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:D13">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:A28">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -862,7 +1032,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:D13">
+  <conditionalFormatting sqref="B26:D27">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -874,7 +1044,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:A28">
+  <conditionalFormatting sqref="A33:A35">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -886,7 +1056,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:D27">
+  <conditionalFormatting sqref="B33:D34">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -898,7 +1068,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:A35">
+  <conditionalFormatting sqref="B9:D9 B7:D7">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -910,7 +1080,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:D34">
+  <conditionalFormatting sqref="A40:A42">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -922,7 +1092,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:D9 B7:D7">
+  <conditionalFormatting sqref="B40:D41">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -942,4 +1112,284 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="5" spans="2:5">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>918</v>
+      </c>
+      <c r="D7">
+        <v>907</v>
+      </c>
+      <c r="E7">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>322</v>
+      </c>
+      <c r="D8">
+        <v>413</v>
+      </c>
+      <c r="E8">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>819</v>
+      </c>
+      <c r="D10">
+        <v>653</v>
+      </c>
+      <c r="E10">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>156</v>
+      </c>
+      <c r="D11">
+        <v>220</v>
+      </c>
+      <c r="E11">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <f>C7/7224</f>
+        <v>0.12707641196013289</v>
+      </c>
+      <c r="D17" s="1">
+        <f>D7/6560</f>
+        <v>0.13826219512195123</v>
+      </c>
+      <c r="E17" s="1">
+        <f>E7/7645</f>
+        <v>0.13760627861347285</v>
+      </c>
+      <c r="G17" s="1">
+        <f>56210/697753</f>
+        <v>8.0558593083798993E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C8/2803</f>
+        <v>0.11487691758829825</v>
+      </c>
+      <c r="D18" s="1">
+        <f>D8/3587</f>
+        <v>0.115137998327293</v>
+      </c>
+      <c r="E18" s="1">
+        <f>E8/4044</f>
+        <v>0.13328387734915925</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>819</v>
+      </c>
+      <c r="D20">
+        <v>653</v>
+      </c>
+      <c r="E20">
+        <v>550</v>
+      </c>
+      <c r="G20" s="1">
+        <f>42390/697753</f>
+        <v>6.0752157282018132E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>156</v>
+      </c>
+      <c r="D21">
+        <v>220</v>
+      </c>
+      <c r="E21">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <f>C7/56210</f>
+        <v>1.6331613591887565E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <f>D7/56210</f>
+        <v>1.6135918875644903E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <f>E7/56210</f>
+        <v>1.8715531044298166E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <f>C8/56210</f>
+        <v>5.7285180572851802E-3</v>
+      </c>
+      <c r="D29" s="1">
+        <f>D8/56210</f>
+        <v>7.3474470734744704E-3</v>
+      </c>
+      <c r="E29" s="1">
+        <f>E8/56210</f>
+        <v>9.5890410958904115E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1">
+        <f>C10/42390</f>
+        <v>1.9320594479830148E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <f>D10/42390</f>
+        <v>1.5404576551073367E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <f>E10/42390</f>
+        <v>1.2974758197688134E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <f>C11/42390</f>
+        <v>3.6801132342533615E-3</v>
+      </c>
+      <c r="D32" s="1">
+        <f>D11/42390</f>
+        <v>5.1899032790752534E-3</v>
+      </c>
+      <c r="E32" s="1">
+        <f>E11/42390</f>
+        <v>7.4074074074074077E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>